--- a/restapi_URLs.xlsx
+++ b/restapi_URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8449F401-2BE9-422F-AD25-00722BA5F28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383061B9-1F7C-4D09-83A8-1365D003C138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10F9B59E-8118-48C6-A005-F194358B1E13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Rest API URL</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t xml:space="preserve">Search based on for a given category &amp; given sub-category, given vendor, greater than a price </t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/productview/?ordering=price</t>
+  </si>
+  <si>
+    <t>List products order by price ascending</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/productview/?ordering=-price</t>
+  </si>
+  <si>
+    <t>List products order by price desceding</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/productview/?ordering=-price&amp;ordering=Vendor_name__name</t>
+  </si>
+  <si>
+    <t>List products order by price ascending  , order by vendor name</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/productview/?ordering=-price&amp;ordering=Vendor_name__name&amp;ordering=category__name</t>
+  </si>
+  <si>
+    <t>List products order by price ascending  , order by vendor name, order by category name</t>
   </si>
 </sst>
 </file>
@@ -446,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0018964B-2885-436D-A1B8-3D34907BCC60}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,11 +538,47 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{57889235-2271-4618-A39D-FBFCFFC5886D}"/>
     <hyperlink ref="A3" r:id="rId2" display="http://127.0.0.1:8000/api/productview/?search=fashion" xr:uid="{0F389D22-A98A-463D-ADDD-A99F5F6660FF}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{D5A7FC2C-1CE0-4C3F-8CA3-003EA85D510D}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{59195276-9585-4CC6-AC95-FA2341D5436B}"/>
+    <hyperlink ref="A11" r:id="rId5" xr:uid="{5418B9BC-F9D0-4D91-89F3-AC808AE92561}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/restapi_URLs.xlsx
+++ b/restapi_URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383061B9-1F7C-4D09-83A8-1365D003C138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A045FD2C-0EA8-431D-9279-CAF5B3CE6E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10F9B59E-8118-48C6-A005-F194358B1E13}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Rest API URL</t>
   </si>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">Search based on for a given category &amp; given sub-category, given vendor, greater than a price </t>
   </si>
   <si>
+    <t>http://127.0.0.1:8000/api/VendorView</t>
+  </si>
+  <si>
     <t>http://127.0.0.1:8000/api/productview/?ordering=price</t>
   </si>
   <si>
@@ -102,6 +105,21 @@
   </si>
   <si>
     <t>List products order by price ascending  , order by vendor name, order by category name</t>
+  </si>
+  <si>
+    <t>List all vendors</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/SubCategoryView</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/api/CategoryView</t>
+  </si>
+  <si>
+    <t>List all subcategories</t>
+  </si>
+  <si>
+    <t>List all Categories</t>
   </si>
 </sst>
 </file>
@@ -470,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0018964B-2885-436D-A1B8-3D34907BCC60}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,34 +558,58 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -577,8 +619,10 @@
     <hyperlink ref="A8" r:id="rId3" xr:uid="{D5A7FC2C-1CE0-4C3F-8CA3-003EA85D510D}"/>
     <hyperlink ref="A9" r:id="rId4" xr:uid="{59195276-9585-4CC6-AC95-FA2341D5436B}"/>
     <hyperlink ref="A11" r:id="rId5" xr:uid="{5418B9BC-F9D0-4D91-89F3-AC808AE92561}"/>
+    <hyperlink ref="A14" r:id="rId6" xr:uid="{47750FC1-E390-480A-9E16-BF891C37BDA2}"/>
+    <hyperlink ref="A15" r:id="rId7" xr:uid="{92FAF64D-E53D-4808-A975-D8226EEB2777}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>